--- a/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
@@ -858,6 +858,9 @@
       <c r="C51" t="str">
         <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -919,7 +922,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02310881071178101013765101010555525152520510101055515661510101010105101515520100</v>
+        <v>02310881071178101013765101010555525152520510101055515661510101010105101515520105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -862,9 +862,633 @@
         <v>5</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>7</v>
+      </c>
+      <c r="C52" t="str">
+        <v>476_酸浆果_Physalis_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>547_粉菠萝_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>547_粉菠萝_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>592_进口春兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>706_小西瓜挂_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>790_铁线莲粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>8</v>
+      </c>
+      <c r="C63" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>1</v>
+      </c>
+      <c r="C66" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>187_香水宝塔_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F68" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>187_香水宝塔_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F69" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F71" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>2</v>
+      </c>
+      <c r="C72" t="str">
+        <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F72" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F73" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F76" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
+      </c>
+      <c r="F77" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>3</v>
+      </c>
+      <c r="C79" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F81" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F82" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
+      </c>
+      <c r="F83" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F84" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F86" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F87" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>4</v>
+      </c>
+      <c r="C88" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F88" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F89" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F90" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F91" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>5</v>
+      </c>
+      <c r="C92" t="str">
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F92" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F93" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F94" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F95" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F96" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F97" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>6</v>
+      </c>
+      <c r="C98" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F98" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>7</v>
+      </c>
+      <c r="C99" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F99" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F100" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="C101" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F101" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>8</v>
+      </c>
+      <c r="C102" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F102" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F103" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F104" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F105" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F106" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="str">
+        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
+      </c>
+      <c r="F107" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F108" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F109" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F110" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="str">
+        <v>78_玉镜_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F111" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
+      <c r="C112" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F112" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
+      <c r="C113" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F113" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>1</v>
+      </c>
+      <c r="C114" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F114" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F115" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F116" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>2</v>
+      </c>
+      <c r="C117" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F117" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F118" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F119" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F120" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F121" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" xml:space="preserve">
+      <c r="C122" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F122" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F123" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F124" t="str">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L124"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -922,7 +1546,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02310881071178101013765101010555525152520510101055515661510101010105101515520105</v>
+        <v>023108810711781010137651010105555251525205101010555156615101010101051015155201055155520533105510151015106491514610103103201520101020302010101010106148591210101051161010101010101010151016235252510855520</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
@@ -1548,6 +1548,9 @@
       <c r="G2" t="str">
         <v>023108810711781010137651010105555251525205101010555156615101010101051015155201055155520533105510151015106491514610103103201520101020302010101010106148591210101051161010101010101010151016235252510855520</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
@@ -692,6 +692,9 @@
       <c r="C31" t="str">
         <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -753,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>06156101051010105510151510105109109515158156660</v>
+        <v>06156101051010105510151510105109109515158156666</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -696,9 +696,90 @@
         <v>6</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>5</v>
+      </c>
+      <c r="C34" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">553_嘉兰百合
+multi-colors_ gloriosa_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>790_铁线莲粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>637_干花小盼草红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>634_干花安娜香槟_undefined_undefined_1stem</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -756,7 +837,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>06156101051010105510151510105109109515158156666</v>
+        <v>0615610105101010551015151010510910951515815666636205101051050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
@@ -776,6 +776,9 @@
       <c r="A41" t="str">
         <v>6</v>
       </c>
+      <c r="C41" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
@@ -779,6 +779,9 @@
       <c r="C41" t="str">
         <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
+      <c r="F41" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -840,7 +843,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0615610105101010551015151010510910951515815666636205101051050</v>
+        <v>0615610105101010551015151010510910951515815666636205101051054</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
@@ -780,7 +780,7 @@
         <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F41" t="str">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -843,7 +843,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0615610105101010551015151010510910951515815666636205101051054</v>
+        <v>06156101051010105510151510105109109515158156666362051010510540</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-23.xlsx
@@ -845,6 +845,9 @@
       <c r="G2" t="str">
         <v>06156101051010105510151510105109109515158156666362051010510540</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
